--- a/medicine/Psychotrope/Gekkeikan_Sake_Company/Gekkeikan_Sake_Company.xlsx
+++ b/medicine/Psychotrope/Gekkeikan_Sake_Company/Gekkeikan_Sake_Company.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gekkeikan Sake Company, ou 月桂冠 en japonais, est une entreprise japonaise de l'industrie agroalimentaire. Cette brasserie a toujours été détenue et dirigée par la famille d'Okura Jiemon. Fondée en 1637 et encore en activité, sa longévité lui permet de faire partie de l'Association des Hénokiens[1].
+Gekkeikan Sake Company, ou 月桂冠 en japonais, est une entreprise japonaise de l'industrie agroalimentaire. Cette brasserie a toujours été détenue et dirigée par la famille d'Okura Jiemon. Fondée en 1637 et encore en activité, sa longévité lui permet de faire partie de l'Association des Hénokiens.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1637, le fondateur de Gekkeikan, Okura Jiemon, arrive dans la banlieue sud de Kyoto à Fushimi pour réaliser son rêve d'établir une brasserie de saké. Célèbre pour son eau et par sa proximité de l'ancienne capitale du Japon, Fushimi était un centre animé par le commerce et par les seigneurs féodaux en route pour visiter le shogun à Tokyo.
 Grâce à des années d'efforts, le saké d'Okura a joui d'une popularité croissante. Enchantée par l'accueil favorable, la brasserie d'Okura a toujours cherché des moyens de dépasser les attentes. En 1868, lorsque l'empereur Meiji a lancé un effort national, la modernisation de la brasserie d'Okura a suivi un plan officiel visant à améliorer l'art de la fabrication du saké.
